--- a/Lecture_8/Assignment_6/bbva_list_geocoded_using_lambda.xlsx
+++ b/Lecture_8/Assignment_6/bbva_list_geocoded_using_lambda.xlsx
@@ -1784,10 +1784,10 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>-12.0128956</v>
+        <v>-12.008385</v>
       </c>
       <c r="G41" t="n">
-        <v>-77.0799981</v>
+        <v>-77.0601759</v>
       </c>
     </row>
     <row r="42">
